--- a/InputData/Supplier_Details.xlsx
+++ b/InputData/Supplier_Details.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="14685" windowHeight="6060"/>
+    <workbookView xWindow="0" yWindow="2448" windowWidth="14688" windowHeight="6060"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="142">
   <si>
     <t>Email</t>
   </si>
@@ -24,12 +24,6 @@
     <t>Password</t>
   </si>
   <si>
-    <t>Jyoti@12</t>
-  </si>
-  <si>
-    <t>jyoti@vtestcorp.com</t>
-  </si>
-  <si>
     <t>Company Name</t>
   </si>
   <si>
@@ -198,12 +192,6 @@
     <t>Quick 2019/11/27 18:27:05</t>
   </si>
   <si>
-    <t>sukanya@vtestcorp.com</t>
-  </si>
-  <si>
-    <t>sukanya@123</t>
-  </si>
-  <si>
     <t>first</t>
   </si>
   <si>
@@ -258,17 +246,209 @@
     <t>FSSB687687</t>
   </si>
   <si>
-    <t>Quick 2020/02/06 12:25:40</t>
-  </si>
-  <si>
     <t>Regular</t>
+  </si>
+  <si>
+    <t>221B Mobile Street</t>
+  </si>
+  <si>
+    <t>Customer RFQ</t>
+  </si>
+  <si>
+    <t>REF number</t>
+  </si>
+  <si>
+    <t>HSN</t>
+  </si>
+  <si>
+    <t>Spcl.Dicsount</t>
+  </si>
+  <si>
+    <t>Discount</t>
+  </si>
+  <si>
+    <t>CustomerPO</t>
+  </si>
+  <si>
+    <t>Internal remarks</t>
+  </si>
+  <si>
+    <t>Expense</t>
+  </si>
+  <si>
+    <t>Customer Remarks</t>
+  </si>
+  <si>
+    <t>Footer</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>UOM</t>
+  </si>
+  <si>
+    <t>Tax Rate</t>
+  </si>
+  <si>
+    <t>Tax Type</t>
+  </si>
+  <si>
+    <t>Tax Name</t>
+  </si>
+  <si>
+    <t>Payment term days</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Department</t>
+  </si>
+  <si>
+    <t>Owner</t>
+  </si>
+  <si>
+    <t>Priority</t>
+  </si>
+  <si>
+    <t>Expiry Date(purchase request)</t>
+  </si>
+  <si>
+    <t>Purchase Request Date</t>
+  </si>
+  <si>
+    <t>Reason</t>
+  </si>
+  <si>
+    <t>Product1</t>
+  </si>
+  <si>
+    <t>GHT3453</t>
+  </si>
+  <si>
+    <t>0010</t>
+  </si>
+  <si>
+    <t>009</t>
+  </si>
+  <si>
+    <t>00200</t>
+  </si>
+  <si>
+    <t>TGTG6767</t>
+  </si>
+  <si>
+    <t>Does not require constant supervision.</t>
+  </si>
+  <si>
+    <t>No Remarks till now !!</t>
+  </si>
+  <si>
+    <t>There is footer inside this footer.</t>
+  </si>
+  <si>
+    <t>Next to Hyatt</t>
+  </si>
+  <si>
+    <t>Counts2</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>CGST</t>
+  </si>
+  <si>
+    <t>New Tax</t>
+  </si>
+  <si>
+    <t>Already Done</t>
+  </si>
+  <si>
+    <t>Finance</t>
+  </si>
+  <si>
+    <t>sukanya vtest</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>March 26, 2020</t>
+  </si>
+  <si>
+    <t>March 21, 2020</t>
+  </si>
+  <si>
+    <t>No Specific reason</t>
+  </si>
+  <si>
+    <t>Product2</t>
+  </si>
+  <si>
+    <t>TGS6768</t>
+  </si>
+  <si>
+    <t>34553</t>
+  </si>
+  <si>
+    <t>0020</t>
+  </si>
+  <si>
+    <t>0050</t>
+  </si>
+  <si>
+    <t>0007</t>
+  </si>
+  <si>
+    <t>0012</t>
+  </si>
+  <si>
+    <t>Glory Rubber (P) Ltd</t>
+  </si>
+  <si>
+    <t>Project</t>
+  </si>
+  <si>
+    <t>SM Tech</t>
+  </si>
+  <si>
+    <t>Place of supply</t>
+  </si>
+  <si>
+    <t>COD</t>
+  </si>
+  <si>
+    <t>TAX</t>
+  </si>
+  <si>
+    <t>CGST (6.0%)</t>
+  </si>
+  <si>
+    <t>CGST (2.0%)</t>
+  </si>
+  <si>
+    <t>Additional Discount</t>
+  </si>
+  <si>
+    <t>relation date</t>
+  </si>
+  <si>
+    <t>2020-05-04</t>
+  </si>
+  <si>
+    <t>q</t>
+  </si>
+  <si>
+    <t>ghulamrashid@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -281,6 +461,26 @@
       <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF44435B"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -308,7 +508,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -317,6 +517,25 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -612,226 +831,248 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AU5"/>
+  <dimension ref="A1:AV11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AA1" workbookViewId="0">
-      <selection activeCell="AS3" sqref="AS3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="19.140625" style="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="19.109375" style="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="15" style="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="24.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="8.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11" style="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="7" width="8.7109375" style="1" collapsed="1"/>
-    <col min="8" max="8" width="9.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="16" width="8.7109375" style="1" collapsed="1"/>
-    <col min="17" max="17" width="10.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="16384" width="8.7109375" style="1" collapsed="1"/>
+    <col min="3" max="3" width="24.109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14.6640625" style="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="17.109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="14.109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="12.5546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="13.6640625" style="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="14" style="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="21" style="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="8.6640625" style="1" collapsed="1"/>
+    <col min="12" max="12" width="11.88671875" style="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="16" width="8.6640625" style="1" collapsed="1"/>
+    <col min="17" max="17" width="10.88671875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="21" width="8.6640625" style="1" collapsed="1"/>
+    <col min="22" max="22" width="13.6640625" style="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="13.33203125" style="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="14.33203125" style="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="26" width="8.6640625" style="1" collapsed="1"/>
+    <col min="27" max="27" width="16.44140625" style="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="16.88671875" style="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="13.88671875" style="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="8.6640625" style="1" collapsed="1"/>
+    <col min="31" max="31" width="12.6640625" style="1" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="8.6640625" style="1" collapsed="1"/>
+    <col min="33" max="33" width="14.44140625" style="1" customWidth="1" collapsed="1"/>
+    <col min="34" max="47" width="8.6640625" style="1" collapsed="1"/>
+    <col min="48" max="48" width="11.33203125" style="1" customWidth="1"/>
+    <col min="49" max="16384" width="8.6640625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" ht="45">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:48" s="4" customFormat="1" ht="43.2">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="U1" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="V1" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="W1" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="X1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y1" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z1" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA1" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB1" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC1" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD1" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE1" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="AF1" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AG1" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH1" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="AI1" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="AJ1" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="AK1" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="AL1" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM1" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN1" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="AO1" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AP1" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="AQ1" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR1" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="AS1" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AT1" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="AU1" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="AV1" s="4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="2" spans="1:48" ht="34.5" customHeight="1">
+      <c r="A2" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AU1" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:47" ht="60">
-      <c r="A2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="F2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="H2" s="1">
         <v>3</v>
       </c>
       <c r="I2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="M2" s="1">
         <v>411011</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Q2" s="1">
         <v>7789066033</v>
       </c>
       <c r="R2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="S2" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="T2" s="1">
         <v>1234567</v>
@@ -840,7 +1081,7 @@
         <v>1234567</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="W2" s="1">
         <v>1234567</v>
@@ -849,7 +1090,7 @@
         <v>1234567</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="Z2" s="1">
         <v>3</v>
@@ -858,87 +1099,90 @@
         <v>100</v>
       </c>
       <c r="AB2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="AC2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="AD2" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="AE2" s="1">
         <v>199</v>
       </c>
       <c r="AF2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG2" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AG2" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="AH2" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="AI2" s="1">
         <v>100</v>
       </c>
+      <c r="AV2" s="6" t="s">
+        <v>139</v>
+      </c>
     </row>
-    <row r="3" spans="1:47" ht="60">
-      <c r="A3" s="1" t="s">
-        <v>60</v>
+    <row r="3" spans="1:48" ht="28.8">
+      <c r="A3" s="3" t="s">
+        <v>141</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>61</v>
+        <v>140</v>
       </c>
       <c r="C3" t="s">
-        <v>80</v>
+        <v>129</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="H3" s="1">
         <v>3</v>
       </c>
       <c r="I3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="L3" s="5" t="s">
         <v>20</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="M3" s="1">
         <v>411011</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Q3" s="1">
         <v>7789066033</v>
       </c>
       <c r="R3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="S3" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="T3" s="1">
         <v>1234567</v>
@@ -946,8 +1190,8 @@
       <c r="U3" s="1">
         <v>1234567</v>
       </c>
-      <c r="V3" s="1" t="s">
-        <v>37</v>
+      <c r="V3" s="6" t="s">
+        <v>131</v>
       </c>
       <c r="W3" s="1">
         <v>1234567</v>
@@ -956,7 +1200,7 @@
         <v>1234567</v>
       </c>
       <c r="Y3" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="Z3" s="1">
         <v>3</v>
@@ -965,64 +1209,70 @@
         <v>100</v>
       </c>
       <c r="AB3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="AC3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="AD3" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="AE3" s="1">
         <v>199</v>
       </c>
       <c r="AF3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG3" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AG3" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="AH3" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="AI3" s="1">
         <v>100</v>
       </c>
       <c r="AK3" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AL3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AM3" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AN3" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AO3" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="AL3" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="AM3" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AN3" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="AO3" s="1" t="s">
-        <v>74</v>
       </c>
       <c r="AP3" s="1">
         <v>7987987</v>
       </c>
       <c r="AQ3" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AR3" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AS3" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AT3" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AU3" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="AR3" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="AS3" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="AT3" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="AU3" s="1" t="s">
-        <v>79</v>
+      <c r="AV3" s="6" t="s">
+        <v>139</v>
       </c>
     </row>
-    <row r="5" spans="1:47">
+    <row r="4" spans="1:48">
+      <c r="C4"/>
+    </row>
+    <row r="5" spans="1:48">
       <c r="A5" s="1">
         <v>0</v>
       </c>
@@ -1164,18 +1414,246 @@
       <c r="AU5" s="1">
         <v>46</v>
       </c>
+    </row>
+    <row r="7" spans="1:48" ht="43.2">
+      <c r="B7" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="P7" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q7" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="R7" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="S7" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="T7" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="U7" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="V7" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="W7" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="X7" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y7" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z7" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA7" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="AB7" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="AC7" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="AD7" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="AE7" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="AF7" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="AG7" s="4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="8" spans="1:48" ht="78.75" customHeight="1">
+      <c r="A8" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C8" s="6">
+        <v>57685</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="K8" s="1">
+        <v>100</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="R8" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="T8" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="U8" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="V8" s="1">
+        <v>21</v>
+      </c>
+      <c r="W8" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="X8" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y8" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="Z8" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="AA8" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="AB8" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="AC8" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="AD8" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="AE8" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF8" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="AG8" s="6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="9" spans="1:48" ht="28.8">
+      <c r="A9" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="J9" s="9"/>
+      <c r="AF9" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="11" spans="1:48">
+      <c r="C11" s="6"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
-    <hyperlink ref="B2" r:id="rId2"/>
-    <hyperlink ref="F2" r:id="rId3"/>
-    <hyperlink ref="R2" r:id="rId4"/>
-    <hyperlink ref="F3" r:id="rId5"/>
-    <hyperlink ref="R3" r:id="rId6"/>
-    <hyperlink ref="AR3" r:id="rId7"/>
+    <hyperlink ref="F2" r:id="rId1"/>
+    <hyperlink ref="R2" r:id="rId2"/>
+    <hyperlink ref="F3" r:id="rId3"/>
+    <hyperlink ref="R3" r:id="rId4"/>
+    <hyperlink ref="AR3" r:id="rId5"/>
+    <hyperlink ref="A2" r:id="rId6"/>
+    <hyperlink ref="A3" r:id="rId7" display="mailto:ghulamrashid@gmail.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId8"/>
 </worksheet>
 </file>
 
@@ -1185,7 +1663,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1197,7 +1675,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
